--- a/excel_with_subclasses/without_zeros/county_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/county_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q28739697</t>
@@ -971,9 +971,6 @@
       <c r="C2" t="s">
         <v>176</v>
       </c>
-      <c r="D2">
-        <v>1052</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -985,9 +982,6 @@
       <c r="C3" t="s">
         <v>176</v>
       </c>
-      <c r="D3">
-        <v>436</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -999,9 +993,6 @@
       <c r="C4" t="s">
         <v>177</v>
       </c>
-      <c r="D4">
-        <v>254</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -1013,9 +1004,6 @@
       <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="D5">
-        <v>159</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -1027,9 +1015,6 @@
       <c r="C6" t="s">
         <v>178</v>
       </c>
-      <c r="D6">
-        <v>141</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -1041,9 +1026,6 @@
       <c r="C7" t="s">
         <v>177</v>
       </c>
-      <c r="D7">
-        <v>120</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -1055,9 +1037,6 @@
       <c r="C8" t="s">
         <v>177</v>
       </c>
-      <c r="D8">
-        <v>114</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -1069,9 +1048,6 @@
       <c r="C9" t="s">
         <v>177</v>
       </c>
-      <c r="D9">
-        <v>105</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -1083,9 +1059,6 @@
       <c r="C10" t="s">
         <v>177</v>
       </c>
-      <c r="D10">
-        <v>102</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -1097,9 +1070,6 @@
       <c r="C11" t="s">
         <v>177</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -1111,9 +1081,6 @@
       <c r="C12" t="s">
         <v>177</v>
       </c>
-      <c r="D12">
-        <v>99</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1125,9 +1092,6 @@
       <c r="C13" t="s">
         <v>177</v>
       </c>
-      <c r="D13">
-        <v>95</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -1139,9 +1103,6 @@
       <c r="C14" t="s">
         <v>177</v>
       </c>
-      <c r="D14">
-        <v>95</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -1153,9 +1114,6 @@
       <c r="C15" t="s">
         <v>177</v>
       </c>
-      <c r="D15">
-        <v>93</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -1167,11 +1125,8 @@
       <c r="C16" t="s">
         <v>177</v>
       </c>
-      <c r="D16">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1181,11 +1136,8 @@
       <c r="C17" t="s">
         <v>177</v>
       </c>
-      <c r="D17">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1195,11 +1147,8 @@
       <c r="C18" t="s">
         <v>177</v>
       </c>
-      <c r="D18">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1209,11 +1158,8 @@
       <c r="C19" t="s">
         <v>177</v>
       </c>
-      <c r="D19">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1223,11 +1169,8 @@
       <c r="C20" t="s">
         <v>177</v>
       </c>
-      <c r="D20">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1237,11 +1180,8 @@
       <c r="C21" t="s">
         <v>177</v>
       </c>
-      <c r="D21">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1251,11 +1191,8 @@
       <c r="C22" t="s">
         <v>177</v>
       </c>
-      <c r="D22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1265,11 +1202,8 @@
       <c r="C23" t="s">
         <v>179</v>
       </c>
-      <c r="D23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1279,11 +1213,8 @@
       <c r="C24" t="s">
         <v>177</v>
       </c>
-      <c r="D24">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1293,11 +1224,8 @@
       <c r="C25" t="s">
         <v>177</v>
       </c>
-      <c r="D25">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1307,11 +1235,8 @@
       <c r="C26" t="s">
         <v>177</v>
       </c>
-      <c r="D26">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1321,11 +1246,8 @@
       <c r="C27" t="s">
         <v>177</v>
       </c>
-      <c r="D27">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1335,11 +1257,8 @@
       <c r="C28" t="s">
         <v>177</v>
       </c>
-      <c r="D28">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1349,11 +1268,8 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1363,11 +1279,8 @@
       <c r="C30" t="s">
         <v>176</v>
       </c>
-      <c r="D30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1377,11 +1290,8 @@
       <c r="C31" t="s">
         <v>177</v>
       </c>
-      <c r="D31">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1391,11 +1301,8 @@
       <c r="C32" t="s">
         <v>176</v>
       </c>
-      <c r="D32">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1405,11 +1312,8 @@
       <c r="C33" t="s">
         <v>177</v>
       </c>
-      <c r="D33">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1419,11 +1323,8 @@
       <c r="C34" t="s">
         <v>177</v>
       </c>
-      <c r="D34">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1433,11 +1334,8 @@
       <c r="C35" t="s">
         <v>181</v>
       </c>
-      <c r="D35">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1447,11 +1345,8 @@
       <c r="C36" t="s">
         <v>177</v>
       </c>
-      <c r="D36">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1461,11 +1356,8 @@
       <c r="C37" t="s">
         <v>177</v>
       </c>
-      <c r="D37">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1475,11 +1367,8 @@
       <c r="C38" t="s">
         <v>177</v>
       </c>
-      <c r="D38">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1489,11 +1378,8 @@
       <c r="C39" t="s">
         <v>182</v>
       </c>
-      <c r="D39">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1503,11 +1389,8 @@
       <c r="C40" t="s">
         <v>178</v>
       </c>
-      <c r="D40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1517,11 +1400,8 @@
       <c r="C41" t="s">
         <v>178</v>
       </c>
-      <c r="D41">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1531,11 +1411,8 @@
       <c r="C42" t="s">
         <v>177</v>
       </c>
-      <c r="D42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1545,11 +1422,8 @@
       <c r="C43" t="s">
         <v>177</v>
       </c>
-      <c r="D43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1559,11 +1433,8 @@
       <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="D44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1573,11 +1444,8 @@
       <c r="C45" t="s">
         <v>183</v>
       </c>
-      <c r="D45">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1587,11 +1455,8 @@
       <c r="C46" t="s">
         <v>178</v>
       </c>
-      <c r="D46">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1601,11 +1466,8 @@
       <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="D47">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1615,11 +1477,8 @@
       <c r="C48" t="s">
         <v>184</v>
       </c>
-      <c r="D48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1629,11 +1488,8 @@
       <c r="C49" t="s">
         <v>177</v>
       </c>
-      <c r="D49">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1643,11 +1499,8 @@
       <c r="C50" t="s">
         <v>185</v>
       </c>
-      <c r="D50">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1657,11 +1510,8 @@
       <c r="C51" t="s">
         <v>186</v>
       </c>
-      <c r="D51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1671,11 +1521,8 @@
       <c r="C52" t="s">
         <v>177</v>
       </c>
-      <c r="D52">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1685,11 +1532,8 @@
       <c r="C53" t="s">
         <v>178</v>
       </c>
-      <c r="D53">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1699,11 +1543,8 @@
       <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="D54">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1713,11 +1554,8 @@
       <c r="C55" t="s">
         <v>177</v>
       </c>
-      <c r="D55">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1727,11 +1565,8 @@
       <c r="C56" t="s">
         <v>177</v>
       </c>
-      <c r="D56">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1741,11 +1576,8 @@
       <c r="C57" t="s">
         <v>176</v>
       </c>
-      <c r="D57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1755,11 +1587,8 @@
       <c r="C58" t="s">
         <v>182</v>
       </c>
-      <c r="D58">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1769,11 +1598,8 @@
       <c r="C59" t="s">
         <v>177</v>
       </c>
-      <c r="D59">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1783,11 +1609,8 @@
       <c r="C60" t="s">
         <v>176</v>
       </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1797,11 +1620,8 @@
       <c r="C61" t="s">
         <v>177</v>
       </c>
-      <c r="D61">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1811,11 +1631,8 @@
       <c r="C62" t="s">
         <v>187</v>
       </c>
-      <c r="D62">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1825,11 +1642,8 @@
       <c r="C63" t="s">
         <v>177</v>
       </c>
-      <c r="D63">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1839,11 +1653,8 @@
       <c r="C64" t="s">
         <v>177</v>
       </c>
-      <c r="D64">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1853,11 +1664,8 @@
       <c r="C65" t="s">
         <v>176</v>
       </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1867,11 +1675,8 @@
       <c r="C66" t="s">
         <v>177</v>
       </c>
-      <c r="D66">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1881,11 +1686,8 @@
       <c r="C67" t="s">
         <v>187</v>
       </c>
-      <c r="D67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1895,11 +1697,8 @@
       <c r="C68" t="s">
         <v>177</v>
       </c>
-      <c r="D68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1909,11 +1708,8 @@
       <c r="C69" t="s">
         <v>177</v>
       </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1923,11 +1719,8 @@
       <c r="C70" t="s">
         <v>177</v>
       </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1937,11 +1730,8 @@
       <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1951,11 +1741,8 @@
       <c r="C72" t="s">
         <v>176</v>
       </c>
-      <c r="D72">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1965,11 +1752,8 @@
       <c r="C73" t="s">
         <v>186</v>
       </c>
-      <c r="D73">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1979,11 +1763,8 @@
       <c r="C74" t="s">
         <v>188</v>
       </c>
-      <c r="D74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1993,11 +1774,8 @@
       <c r="C75" t="s">
         <v>177</v>
       </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2007,11 +1785,8 @@
       <c r="C76" t="s">
         <v>177</v>
       </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2021,11 +1796,8 @@
       <c r="C77" t="s">
         <v>176</v>
       </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2035,11 +1807,8 @@
       <c r="C78" t="s">
         <v>176</v>
       </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2049,11 +1818,8 @@
       <c r="C79" t="s">
         <v>189</v>
       </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2063,11 +1829,8 @@
       <c r="C80" t="s">
         <v>187</v>
       </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2077,11 +1840,8 @@
       <c r="C81" t="s">
         <v>177</v>
       </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2091,11 +1851,8 @@
       <c r="C82" t="s">
         <v>178</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2105,11 +1862,8 @@
       <c r="C83" t="s">
         <v>176</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2119,11 +1873,8 @@
       <c r="C84" t="s">
         <v>176</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2133,11 +1884,8 @@
       <c r="C85" t="s">
         <v>176</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2147,11 +1895,8 @@
       <c r="C86" t="s">
         <v>176</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2160,9 +1905,6 @@
       </c>
       <c r="C87" t="s">
         <v>176</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
